--- a/input_nuts-small.xlsx
+++ b/input_nuts-small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D8A08C-E6DE-4CA2-BE66-DE9176101984}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BEDBC7-FEA3-43F1-B289-17F8B5DCB489}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -294,12 +294,6 @@
     <t>Nut Harvest hours</t>
   </si>
   <si>
-    <t>work_irrigation_installation_annual</t>
-  </si>
-  <si>
-    <t>Annual installation of irrigation work</t>
-  </si>
-  <si>
     <t>tree_planting_hours</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>Cost for Water trailer in €</t>
+  </si>
+  <si>
+    <t>work_per_trailer</t>
+  </si>
+  <si>
+    <t>Hours for refilling the Trailor</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +362,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +378,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -708,7 +701,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,29 +823,29 @@
         <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -899,7 +892,7 @@
         <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -953,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -976,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1040,50 +1033,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="5">
-        <v>300</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>500</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="B16" s="1">
+        <v>250</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>350</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="5">
-        <v>250</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>350</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1211,13 +1204,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -1298,110 +1291,110 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="5">
-        <v>6000</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="4">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4">
-        <v>20</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>87</v>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/input_nuts-small.xlsx
+++ b/input_nuts-small.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af5f397540487a4/R/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D539A79F-19DE-40DF-B226-12A1150E603D}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE182B04-ED12-4671-91BE-D5D4210E58E7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>variable</t>
   </si>
@@ -661,17 +661,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="50.109375" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -763,7 +763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,7 +786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -829,12 +829,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -869,7 +869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -889,7 +889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -935,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -958,18 +958,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>1575</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>2000</v>
+        <v>2025</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -977,8 +977,11 @@
       <c r="F14" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1018,18 +1021,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1037,8 +1040,11 @@
       <c r="F17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1454,8 +1460,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/input_nuts-small.xlsx
+++ b/input_nuts-small.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af5f397540487a4/R/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BEDBC7-FEA3-43F1-B289-17F8B5DCB489}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="8_{3568966E-F10A-4A87-8770-2C8F7733F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896D266E-DD8D-4534-9F96-39B7D3965F2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{374AAA1E-B073-4CF1-B979-99CE47E0D28D}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,13 +1537,13 @@
         <v>41</v>
       </c>
       <c r="B38" s="1">
-        <v>56000</v>
+        <v>180</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1">
-        <v>60000</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>9</v>
